--- a/Input documents/SIQ/SIQ.xlsx
+++ b/Input documents/SIQ/SIQ.xlsx
@@ -1,23 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Asked by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question </t>
+  </si>
+  <si>
+    <t>Expected Response Date</t>
+  </si>
+  <si>
+    <t>Return Date</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Proposed Answer</t>
+  </si>
+  <si>
+    <t>Submission Date</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +57,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +98,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -68,44 +137,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -132,14 +201,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -166,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -177,201 +248,385 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="46.9" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="47.45" customHeight="1">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" ht="47.45" customHeight="1">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input documents/SIQ/SIQ.xlsx
+++ b/Input documents/SIQ/SIQ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Request ID</t>
   </si>
@@ -43,13 +43,22 @@
   </si>
   <si>
     <t>Submission Date</t>
+  </si>
+  <si>
+    <t>REQ_ PO2_EBL_Electric_Blender_SRS_001.3-1.0</t>
+  </si>
+  <si>
+    <t>Mostafa Ramadan</t>
+  </si>
+  <si>
+    <t>what should be the speed for each state?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +79,21 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -98,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -107,6 +131,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,15 +423,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="52.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
@@ -434,10 +466,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.45" customHeight="1">
-      <c r="C2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="6">
+        <v>43854</v>
+      </c>
+      <c r="F2" s="6">
+        <v>43854</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>

--- a/Input documents/SIQ/SIQ.xlsx
+++ b/Input documents/SIQ/SIQ.xlsx
@@ -131,6 +131,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -297,20 +298,20 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Input documents/SIQ/SIQ.xlsx
+++ b/Input documents/SIQ/SIQ.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\GitHub\GroupA_Electric_Blender-ITI-Intake40-\Input documents\SIQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,58 +24,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Request ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asked by</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Asked by</t>
   </si>
   <si>
     <t xml:space="preserve">Question </t>
   </si>
   <si>
-    <t xml:space="preserve">Proposed Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submission Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Response Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ_ PO2_EBL_Electric_Blender_SRS_001.3-1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostafa Ramadan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what should be the speed for each state?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/1/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed 1 : from 0% up to 30%. 
+    <t>Proposed Answer</t>
+  </si>
+  <si>
+    <t>Submission Date</t>
+  </si>
+  <si>
+    <t>Expected Response Date</t>
+  </si>
+  <si>
+    <t>Return Date</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>REQ_ PO2_EBL_Electric_Blender_SRS_001.3-1.0</t>
+  </si>
+  <si>
+    <t>Mostafa Ramadan</t>
+  </si>
+  <si>
+    <t>what should be the speed for each state?</t>
+  </si>
+  <si>
+    <t>30/1/2020</t>
+  </si>
+  <si>
+    <t>Speed 1 : from 0% up to 30%. 
 Speed 2: above 30% up to 60%. 
 Speed 3: above  60 % up to 100%.</t>
+  </si>
+  <si>
+    <t>What is the defined voltage at which the system would be cosidered failed ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -80,22 +86,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF333F50"/>
       <name val="Times New Roman"/>
@@ -103,7 +94,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
@@ -111,7 +102,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -119,7 +110,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -130,7 +121,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -149,7 +139,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -157,77 +147,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -286,35 +239,309 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333F50"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.87"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="70.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -351,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="7">
         <v>43854</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="7">
         <v>43854</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -364,15 +591,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G3" s="9">
+        <v>44014</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -380,7 +611,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -388,7 +619,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -396,7 +627,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -404,7 +635,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -412,7 +643,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -420,7 +651,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -428,7 +659,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -436,7 +667,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -444,7 +675,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -452,7 +683,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -460,7 +691,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -468,7 +699,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -476,7 +707,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -484,7 +715,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -492,7 +723,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -500,7 +731,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -508,7 +739,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -516,7 +747,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -524,7 +755,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -532,7 +763,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -540,7 +771,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -549,12 +780,7 @@
       <c r="H25" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Input documents/SIQ/SIQ.xlsx
+++ b/Input documents/SIQ/SIQ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Request ID</t>
   </si>
@@ -68,6 +68,31 @@
   </si>
   <si>
     <t>What is the defined voltage at which the system would be cosidered failed ?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Req_ PO2_EBL_Electric_Blender_CYRS_003-1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <t>Ahmed Geneidi</t>
   </si>
 </sst>
 </file>
@@ -77,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,6 +147,33 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +225,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,15 +582,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="3" max="3" width="80.33203125" customWidth="1"/>
     <col min="4" max="4" width="52.33203125" customWidth="1"/>
     <col min="5" max="5" width="30.21875" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
@@ -591,17 +648,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6"/>
+    <row r="3" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9">
+      <c r="E3" s="9">
         <v>44014</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="F3" s="9">
+        <v>44106</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
@@ -781,6 +846,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input documents/SIQ/SIQ.xlsx
+++ b/Input documents/SIQ/SIQ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,59 +19,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">Request ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asked by</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Asked by</t>
   </si>
   <si>
     <t xml:space="preserve">Question </t>
   </si>
   <si>
-    <t xml:space="preserve">Proposed Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submission Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Response Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ_ PO2_EBL_Electric_Blender_SRS_001.3-1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostafa Ramadan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what should be the speed for each state?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/1/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed 1 : from 0% up to 30%. 
+    <t>Proposed Answer</t>
+  </si>
+  <si>
+    <t>Submission Date</t>
+  </si>
+  <si>
+    <t>Expected Response Date</t>
+  </si>
+  <si>
+    <t>Return Date</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>REQ_ PO2_EBL_Electric_Blender_SRS_001.3-1.0</t>
+  </si>
+  <si>
+    <t>Mostafa Ramadan</t>
+  </si>
+  <si>
+    <t>what should be the speed for each state?</t>
+  </si>
+  <si>
+    <t>30/1/2020</t>
+  </si>
+  <si>
+    <t>Speed 1 : from 0% up to 30%. 
 Speed 2: above 30% up to 60%. 
 Speed 3: above  60 % up to 100%.</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Req_ PO2_EBL_Electric_Blender_CYRS_003-1.0</t>
+      <t>Req_ PO2_EBL_Electric_Blender_CYRS_003-1.0</t>
     </r>
     <r>
       <rPr>
@@ -86,26 +85,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ahmed Geneidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the defined voltage at which the system would be cosidered failed ?</t>
+    <t>Ahmed Geneidi</t>
+  </si>
+  <si>
+    <t>What is the defined voltage at which the system would be cosidered failed ?</t>
   </si>
   <si>
     <t xml:space="preserve">It depends on your motor operating voltage (Min voltage , Max voltage), so under
  Min voltage will consider it as a system failure &amp; above the Max voltage will be
  Considered also as a failure. </t>
+  </si>
+  <si>
+    <t>Req_ PO2_EBL_Electric_Blender_GDD_010-1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the frequency of the PWM is set only once at the beginning of the function so should is be considered a private API? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,22 +118,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF333F50"/>
       <name val="Times New Roman"/>
@@ -137,7 +126,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
@@ -145,7 +134,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -153,7 +142,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -164,11 +153,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -176,12 +164,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,7 +200,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -207,89 +208,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -348,35 +312,323 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333F50"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="70.56"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="115" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="46.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="47.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -413,10 +665,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="7">
         <v>43854</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="7">
         <v>43854</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -426,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="47.45" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -437,28 +689,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>44014</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>44106</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>44076</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="6"/>
+    <row r="4" spans="1:8" ht="47.45" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="15">
+        <v>44077</v>
+      </c>
+      <c r="F4" s="15">
+        <v>44107</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="47.45" customHeight="1">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -466,7 +730,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="47.45" customHeight="1">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -474,7 +738,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="47.45" customHeight="1">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -482,7 +746,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="47.45" customHeight="1">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -490,7 +754,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="47.45" customHeight="1">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -498,7 +762,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="47.45" customHeight="1">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -506,7 +770,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="47.45" customHeight="1">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -514,7 +778,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="47.45" customHeight="1">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -522,7 +786,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="47.45" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -530,7 +794,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="47.45" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -538,7 +802,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="47.45" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -546,7 +810,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="47.45" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -554,7 +818,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:8" ht="47.45" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -562,7 +826,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:8" ht="47.45" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -570,7 +834,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:8" ht="47.45" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -578,7 +842,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:8" ht="47.45" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -586,7 +850,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:8" ht="47.45" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -594,7 +858,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:8" ht="47.45" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -602,7 +866,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:8" ht="47.45" customHeight="1">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -610,7 +874,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:8" ht="47.45" customHeight="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -618,7 +882,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:8" ht="47.45" customHeight="1">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -627,12 +891,7 @@
       <c r="H25" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>